--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1777,28 +1777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>433.9384256194161</v>
+        <v>570.943557985512</v>
       </c>
       <c r="AB2" t="n">
-        <v>593.7336979447077</v>
+        <v>781.1901642878591</v>
       </c>
       <c r="AC2" t="n">
-        <v>537.0685871233428</v>
+        <v>706.6344714155068</v>
       </c>
       <c r="AD2" t="n">
-        <v>433938.4256194161</v>
+        <v>570943.5579855121</v>
       </c>
       <c r="AE2" t="n">
-        <v>593733.6979447077</v>
+        <v>781190.1642878591</v>
       </c>
       <c r="AF2" t="n">
         <v>5.90321942657423e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.58564814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>537068.5871233428</v>
+        <v>706634.4714155068</v>
       </c>
     </row>
     <row r="3">
@@ -1883,28 +1883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>286.6934843415665</v>
+        <v>384.4772118185648</v>
       </c>
       <c r="AB3" t="n">
-        <v>392.2666733000087</v>
+        <v>526.0586831476332</v>
       </c>
       <c r="AC3" t="n">
-        <v>354.8292925499889</v>
+        <v>475.8523807560213</v>
       </c>
       <c r="AD3" t="n">
-        <v>286693.4843415665</v>
+        <v>384477.2118185648</v>
       </c>
       <c r="AE3" t="n">
-        <v>392266.6733000088</v>
+        <v>526058.6831476332</v>
       </c>
       <c r="AF3" t="n">
         <v>8.166355257918926e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.22453703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>354829.2925499889</v>
+        <v>475852.3807560213</v>
       </c>
     </row>
     <row r="4">
@@ -1989,28 +1989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>269.5778239175002</v>
+        <v>367.4288712022028</v>
       </c>
       <c r="AB4" t="n">
-        <v>368.8482716181549</v>
+        <v>502.7323913966209</v>
       </c>
       <c r="AC4" t="n">
-        <v>333.6459102567179</v>
+        <v>454.7523175510694</v>
       </c>
       <c r="AD4" t="n">
-        <v>269577.8239175002</v>
+        <v>367428.8712022028</v>
       </c>
       <c r="AE4" t="n">
-        <v>368848.2716181548</v>
+        <v>502732.3913966209</v>
       </c>
       <c r="AF4" t="n">
         <v>8.468622006559786e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.5300925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>333645.9102567179</v>
+        <v>454752.3175510694</v>
       </c>
     </row>
   </sheetData>
@@ -2286,28 +2286,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>352.6867509397939</v>
+        <v>459.1396372020595</v>
       </c>
       <c r="AB2" t="n">
-        <v>482.5615720771481</v>
+        <v>628.2151074310686</v>
       </c>
       <c r="AC2" t="n">
-        <v>436.5065729175245</v>
+        <v>568.2591392832876</v>
       </c>
       <c r="AD2" t="n">
-        <v>352686.7509397939</v>
+        <v>459139.6372020595</v>
       </c>
       <c r="AE2" t="n">
-        <v>482561.5720771481</v>
+        <v>628215.1074310687</v>
       </c>
       <c r="AF2" t="n">
         <v>7.440138479713343e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.07870370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>436506.5729175245</v>
+        <v>568259.1392832876</v>
       </c>
     </row>
     <row r="3">
@@ -2392,28 +2392,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>261.5671835254666</v>
+        <v>358.338509607767</v>
       </c>
       <c r="AB3" t="n">
-        <v>357.8877600292625</v>
+        <v>490.294557624664</v>
       </c>
       <c r="AC3" t="n">
-        <v>323.7314545106949</v>
+        <v>443.5015331776988</v>
       </c>
       <c r="AD3" t="n">
-        <v>261567.1835254667</v>
+        <v>358338.509607767</v>
       </c>
       <c r="AE3" t="n">
-        <v>357887.7600292625</v>
+        <v>490294.557624664</v>
       </c>
       <c r="AF3" t="n">
         <v>9.172456385515813e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.72685185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>323731.4545106949</v>
+        <v>443501.5331776988</v>
       </c>
     </row>
   </sheetData>
@@ -2689,28 +2689,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>265.7081735548157</v>
+        <v>368.5843072730266</v>
       </c>
       <c r="AB2" t="n">
-        <v>363.5536452750046</v>
+        <v>504.3133100029638</v>
       </c>
       <c r="AC2" t="n">
-        <v>328.8565956207032</v>
+        <v>456.1823555044562</v>
       </c>
       <c r="AD2" t="n">
-        <v>265708.1735548157</v>
+        <v>368584.3072730266</v>
       </c>
       <c r="AE2" t="n">
-        <v>363553.6452750046</v>
+        <v>504313.3100029638</v>
       </c>
       <c r="AF2" t="n">
         <v>1.153818296259284e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.77546296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>328856.5956207032</v>
+        <v>456182.3555044562</v>
       </c>
     </row>
   </sheetData>
@@ -2986,28 +2986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>260.8107745899114</v>
+        <v>355.6364758747004</v>
       </c>
       <c r="AB2" t="n">
-        <v>356.8528079532289</v>
+        <v>486.597515865767</v>
       </c>
       <c r="AC2" t="n">
-        <v>322.7952768082336</v>
+        <v>440.1573318954403</v>
       </c>
       <c r="AD2" t="n">
-        <v>260810.7745899115</v>
+        <v>355636.4758747004</v>
       </c>
       <c r="AE2" t="n">
-        <v>356852.8079532289</v>
+        <v>486597.515865767</v>
       </c>
       <c r="AF2" t="n">
         <v>1.057782109952472e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.62962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>322795.2768082336</v>
+        <v>440157.3318954403</v>
       </c>
     </row>
     <row r="3">
@@ -3092,28 +3092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>260.8086473870707</v>
+        <v>355.6343486718595</v>
       </c>
       <c r="AB3" t="n">
-        <v>356.8498974204566</v>
+        <v>486.5946053329947</v>
       </c>
       <c r="AC3" t="n">
-        <v>322.792644052624</v>
+        <v>440.1546991398308</v>
       </c>
       <c r="AD3" t="n">
-        <v>260808.6473870706</v>
+        <v>355634.3486718595</v>
       </c>
       <c r="AE3" t="n">
-        <v>356849.8974204566</v>
+        <v>486594.6053329947</v>
       </c>
       <c r="AF3" t="n">
         <v>1.060938704807361e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.56018518518518</v>
       </c>
       <c r="AH3" t="n">
-        <v>322792.644052624</v>
+        <v>440154.6991398308</v>
       </c>
     </row>
   </sheetData>
@@ -3389,28 +3389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>283.6071727784109</v>
+        <v>394.4864404272711</v>
       </c>
       <c r="AB2" t="n">
-        <v>388.0438456608429</v>
+        <v>539.7537513060665</v>
       </c>
       <c r="AC2" t="n">
-        <v>351.0094856539292</v>
+        <v>488.2404108305626</v>
       </c>
       <c r="AD2" t="n">
-        <v>283607.172778411</v>
+        <v>394486.4404272711</v>
       </c>
       <c r="AE2" t="n">
-        <v>388043.8456608428</v>
+        <v>539753.7513060665</v>
       </c>
       <c r="AF2" t="n">
         <v>1.2212493021879e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.47685185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>351009.4856539292</v>
+        <v>488240.4108305626</v>
       </c>
     </row>
   </sheetData>
@@ -3686,28 +3686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>364.4069428889749</v>
+        <v>490.5546851361613</v>
       </c>
       <c r="AB2" t="n">
-        <v>498.5976557603943</v>
+        <v>671.1985619486072</v>
       </c>
       <c r="AC2" t="n">
-        <v>451.0121952808265</v>
+        <v>607.1403132293296</v>
       </c>
       <c r="AD2" t="n">
-        <v>364406.9428889749</v>
+        <v>490554.6851361613</v>
       </c>
       <c r="AE2" t="n">
-        <v>498597.6557603943</v>
+        <v>671198.5619486072</v>
       </c>
       <c r="AF2" t="n">
         <v>7.018742540888724e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.87731481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>451012.1952808265</v>
+        <v>607140.3132293297</v>
       </c>
     </row>
     <row r="3">
@@ -3792,28 +3792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>263.7565180142544</v>
+        <v>360.8116395837413</v>
       </c>
       <c r="AB3" t="n">
-        <v>360.8833040634428</v>
+        <v>493.6784031645861</v>
       </c>
       <c r="AC3" t="n">
-        <v>326.4411080265255</v>
+        <v>446.5624292485479</v>
       </c>
       <c r="AD3" t="n">
-        <v>263756.5180142544</v>
+        <v>360811.6395837413</v>
       </c>
       <c r="AE3" t="n">
-        <v>360883.3040634429</v>
+        <v>493678.4031645862</v>
       </c>
       <c r="AF3" t="n">
         <v>8.978239236144883e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.66898148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>326441.1080265255</v>
+        <v>446562.4292485479</v>
       </c>
     </row>
     <row r="4">
@@ -3898,28 +3898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>264.003681052417</v>
+        <v>361.0588026219039</v>
       </c>
       <c r="AB4" t="n">
-        <v>361.2214834363206</v>
+        <v>494.0165825374639</v>
       </c>
       <c r="AC4" t="n">
-        <v>326.7470120346935</v>
+        <v>446.8683332567158</v>
       </c>
       <c r="AD4" t="n">
-        <v>264003.681052417</v>
+        <v>361058.8026219038</v>
       </c>
       <c r="AE4" t="n">
-        <v>361221.4834363206</v>
+        <v>494016.5825374639</v>
       </c>
       <c r="AF4" t="n">
         <v>8.978528824069991e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.66898148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>326747.0120346934</v>
+        <v>446868.3332567158</v>
       </c>
     </row>
   </sheetData>
@@ -4195,28 +4195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>302.8152124253879</v>
+        <v>413.0221129752254</v>
       </c>
       <c r="AB2" t="n">
-        <v>414.3251329047393</v>
+        <v>565.1150762223375</v>
       </c>
       <c r="AC2" t="n">
-        <v>374.7825237292865</v>
+        <v>511.1812864916677</v>
       </c>
       <c r="AD2" t="n">
-        <v>302815.2124253879</v>
+        <v>413022.1129752254</v>
       </c>
       <c r="AE2" t="n">
-        <v>414325.1329047394</v>
+        <v>565115.0762223375</v>
       </c>
       <c r="AF2" t="n">
         <v>1.250775519076756e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.01620370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>374782.5237292865</v>
+        <v>511181.2864916677</v>
       </c>
     </row>
   </sheetData>
@@ -4492,28 +4492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>291.0667820364189</v>
+        <v>396.5054982371616</v>
       </c>
       <c r="AB2" t="n">
-        <v>398.2504121423833</v>
+        <v>542.5163152761029</v>
       </c>
       <c r="AC2" t="n">
-        <v>360.2419517554775</v>
+        <v>490.7393195725815</v>
       </c>
       <c r="AD2" t="n">
-        <v>291066.7820364189</v>
+        <v>396505.4982371617</v>
       </c>
       <c r="AE2" t="n">
-        <v>398250.4121423833</v>
+        <v>542516.3152761029</v>
       </c>
       <c r="AF2" t="n">
         <v>8.998317063730188e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.75231481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>360241.9517554775</v>
+        <v>490739.3195725815</v>
       </c>
     </row>
     <row r="3">
@@ -4598,28 +4598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>265.7520244810222</v>
+        <v>352.0148641444361</v>
       </c>
       <c r="AB3" t="n">
-        <v>363.6136440468066</v>
+        <v>481.6422669221862</v>
       </c>
       <c r="AC3" t="n">
-        <v>328.9108681939333</v>
+        <v>435.6750049562992</v>
       </c>
       <c r="AD3" t="n">
-        <v>265752.0244810222</v>
+        <v>352014.8641444361</v>
       </c>
       <c r="AE3" t="n">
-        <v>363613.6440468066</v>
+        <v>481642.2669221862</v>
       </c>
       <c r="AF3" t="n">
         <v>9.825674338040025e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.00462962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>328910.8681939333</v>
+        <v>435675.0049562992</v>
       </c>
     </row>
   </sheetData>
@@ -4895,28 +4895,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>331.0767648723847</v>
+        <v>437.1714398324097</v>
       </c>
       <c r="AB2" t="n">
-        <v>452.9938357744188</v>
+        <v>598.1572506214463</v>
       </c>
       <c r="AC2" t="n">
-        <v>409.760739868949</v>
+        <v>541.0699621411086</v>
       </c>
       <c r="AD2" t="n">
-        <v>331076.7648723847</v>
+        <v>437171.4398324097</v>
       </c>
       <c r="AE2" t="n">
-        <v>452993.8357744188</v>
+        <v>598157.2506214463</v>
       </c>
       <c r="AF2" t="n">
         <v>7.931815204553409e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>409760.7398689491</v>
+        <v>541069.9621411086</v>
       </c>
     </row>
     <row r="3">
@@ -5001,28 +5001,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>259.8156419492272</v>
+        <v>356.2923808647459</v>
       </c>
       <c r="AB3" t="n">
-        <v>355.491223572091</v>
+        <v>487.4949540096333</v>
       </c>
       <c r="AC3" t="n">
-        <v>321.5636401294357</v>
+        <v>440.9691198024182</v>
       </c>
       <c r="AD3" t="n">
-        <v>259815.6419492272</v>
+        <v>356292.3808647459</v>
       </c>
       <c r="AE3" t="n">
-        <v>355491.223572091</v>
+        <v>487494.9540096333</v>
       </c>
       <c r="AF3" t="n">
         <v>9.381176518259123e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.78472222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>321563.6401294357</v>
+        <v>440969.1198024182</v>
       </c>
     </row>
   </sheetData>
@@ -5298,28 +5298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>409.6484174895186</v>
+        <v>536.5652721875441</v>
       </c>
       <c r="AB2" t="n">
-        <v>560.4990372218532</v>
+        <v>734.1522769961508</v>
       </c>
       <c r="AC2" t="n">
-        <v>507.0057957747382</v>
+        <v>664.0858140688297</v>
       </c>
       <c r="AD2" t="n">
-        <v>409648.4174895186</v>
+        <v>536565.2721875441</v>
       </c>
       <c r="AE2" t="n">
-        <v>560499.0372218532</v>
+        <v>734152.2769961508</v>
       </c>
       <c r="AF2" t="n">
         <v>6.253119838722084e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.625</v>
       </c>
       <c r="AH2" t="n">
-        <v>507005.7957747382</v>
+        <v>664085.8140688296</v>
       </c>
     </row>
     <row r="3">
@@ -5404,28 +5404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>271.2113621192395</v>
+        <v>368.8055464681706</v>
       </c>
       <c r="AB3" t="n">
-        <v>371.083350652394</v>
+        <v>504.6160192301443</v>
       </c>
       <c r="AC3" t="n">
-        <v>335.6676764848824</v>
+        <v>456.4561745878498</v>
       </c>
       <c r="AD3" t="n">
-        <v>271211.3621192395</v>
+        <v>368805.5464681707</v>
       </c>
       <c r="AE3" t="n">
-        <v>371083.3506523939</v>
+        <v>504616.0192301443</v>
       </c>
       <c r="AF3" t="n">
         <v>8.467628006898634e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.92361111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>335667.6764848824</v>
+        <v>456456.1745878498</v>
       </c>
     </row>
     <row r="4">
@@ -5510,28 +5510,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>267.6512791550838</v>
+        <v>365.2454635040149</v>
       </c>
       <c r="AB4" t="n">
-        <v>366.2122880810604</v>
+        <v>499.7449566588107</v>
       </c>
       <c r="AC4" t="n">
-        <v>331.2615012887777</v>
+        <v>452.049999391745</v>
       </c>
       <c r="AD4" t="n">
-        <v>267651.2791550838</v>
+        <v>365245.4635040149</v>
       </c>
       <c r="AE4" t="n">
-        <v>366212.2880810604</v>
+        <v>499744.9566588107</v>
       </c>
       <c r="AF4" t="n">
         <v>8.631819472731181e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.56481481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>331261.5012887777</v>
+        <v>452049.999391745</v>
       </c>
     </row>
   </sheetData>
@@ -5807,28 +5807,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>265.0337025153306</v>
+        <v>360.2311224073912</v>
       </c>
       <c r="AB2" t="n">
-        <v>362.6308042432188</v>
+        <v>492.8841139532938</v>
       </c>
       <c r="AC2" t="n">
-        <v>328.0218292417755</v>
+        <v>445.8439458847892</v>
       </c>
       <c r="AD2" t="n">
-        <v>265033.7025153306</v>
+        <v>360231.1224073912</v>
       </c>
       <c r="AE2" t="n">
-        <v>362630.8042432189</v>
+        <v>492884.1139532938</v>
       </c>
       <c r="AF2" t="n">
         <v>1.014401115839404e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>328021.8292417756</v>
+        <v>445843.9458847892</v>
       </c>
     </row>
     <row r="3">
@@ -5913,28 +5913,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>262.5886069223671</v>
+        <v>357.6845415879425</v>
       </c>
       <c r="AB3" t="n">
-        <v>359.2853165829217</v>
+        <v>489.3997697289074</v>
       </c>
       <c r="AC3" t="n">
-        <v>324.9956302283558</v>
+        <v>442.6921425828705</v>
       </c>
       <c r="AD3" t="n">
-        <v>262588.6069223671</v>
+        <v>357684.5415879425</v>
       </c>
       <c r="AE3" t="n">
-        <v>359285.3165829217</v>
+        <v>489399.7697289074</v>
       </c>
       <c r="AF3" t="n">
         <v>1.032522818092558e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.35185185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>324995.6302283558</v>
+        <v>442692.1425828705</v>
       </c>
     </row>
   </sheetData>
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>266.8167149481621</v>
+        <v>360.7587288269258</v>
       </c>
       <c r="AB2" t="n">
-        <v>365.0704005147759</v>
+        <v>493.6060083328534</v>
       </c>
       <c r="AC2" t="n">
-        <v>330.2285938691701</v>
+        <v>446.4969436779489</v>
       </c>
       <c r="AD2" t="n">
-        <v>266816.7149481621</v>
+        <v>360758.7288269259</v>
       </c>
       <c r="AE2" t="n">
-        <v>365070.4005147759</v>
+        <v>493606.0083328534</v>
       </c>
       <c r="AF2" t="n">
         <v>1.122221800335679e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.24305555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>330228.5938691701</v>
+        <v>446496.943677949</v>
       </c>
     </row>
   </sheetData>
@@ -10192,28 +10192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>274.3090075381622</v>
+        <v>376.5731639058523</v>
       </c>
       <c r="AB2" t="n">
-        <v>375.3216857730349</v>
+        <v>515.2440160914762</v>
       </c>
       <c r="AC2" t="n">
-        <v>339.5015108501501</v>
+        <v>466.0698503452235</v>
       </c>
       <c r="AD2" t="n">
-        <v>274309.0075381622</v>
+        <v>376573.1639058523</v>
       </c>
       <c r="AE2" t="n">
-        <v>375321.6857730349</v>
+        <v>515244.0160914762</v>
       </c>
       <c r="AF2" t="n">
         <v>1.189205085435055e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.44675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>339501.5108501501</v>
+        <v>466069.8503452234</v>
       </c>
     </row>
   </sheetData>
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>324.6729547030356</v>
+        <v>452.2868056149001</v>
       </c>
       <c r="AB2" t="n">
-        <v>444.2318601845497</v>
+        <v>618.8387609279246</v>
       </c>
       <c r="AC2" t="n">
-        <v>401.8349949318672</v>
+        <v>559.7776581306188</v>
       </c>
       <c r="AD2" t="n">
-        <v>324672.9547030356</v>
+        <v>452286.8056149001</v>
       </c>
       <c r="AE2" t="n">
-        <v>444231.8601845497</v>
+        <v>618838.7609279245</v>
       </c>
       <c r="AF2" t="n">
         <v>1.258318912662502e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.80555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>401834.9949318672</v>
+        <v>559777.6581306187</v>
       </c>
     </row>
   </sheetData>
@@ -10786,28 +10786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>311.3848193254449</v>
+        <v>417.209606439834</v>
       </c>
       <c r="AB2" t="n">
-        <v>426.0504471297713</v>
+        <v>570.8445895197884</v>
       </c>
       <c r="AC2" t="n">
-        <v>385.3887904212633</v>
+        <v>516.3639830814324</v>
       </c>
       <c r="AD2" t="n">
-        <v>311384.8193254449</v>
+        <v>417209.606439834</v>
       </c>
       <c r="AE2" t="n">
-        <v>426050.4471297713</v>
+        <v>570844.5895197884</v>
       </c>
       <c r="AF2" t="n">
         <v>8.414653140481199e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.53935185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>385388.7904212633</v>
+        <v>516363.9830814324</v>
       </c>
     </row>
     <row r="3">
@@ -10892,28 +10892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>257.9571153410141</v>
+        <v>354.1273018444084</v>
       </c>
       <c r="AB3" t="n">
-        <v>352.9483054741597</v>
+        <v>484.5325973774624</v>
       </c>
       <c r="AC3" t="n">
-        <v>319.2634145658693</v>
+        <v>438.2894863295281</v>
       </c>
       <c r="AD3" t="n">
-        <v>257957.1153410141</v>
+        <v>354127.3018444084</v>
       </c>
       <c r="AE3" t="n">
-        <v>352948.3054741597</v>
+        <v>484532.5973774624</v>
       </c>
       <c r="AF3" t="n">
         <v>9.583437610037587e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.91203703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>319263.4145658693</v>
+        <v>438289.4863295282</v>
       </c>
     </row>
   </sheetData>
@@ -11189,28 +11189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>387.0635231378577</v>
+        <v>513.601632027556</v>
       </c>
       <c r="AB2" t="n">
-        <v>529.5973883946924</v>
+        <v>702.7324114449508</v>
       </c>
       <c r="AC2" t="n">
-        <v>479.0533569409052</v>
+        <v>635.664616387778</v>
       </c>
       <c r="AD2" t="n">
-        <v>387063.5231378577</v>
+        <v>513601.632027556</v>
       </c>
       <c r="AE2" t="n">
-        <v>529597.3883946924</v>
+        <v>702732.4114449508</v>
       </c>
       <c r="AF2" t="n">
         <v>6.610307404435528e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.76851851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>479053.3569409052</v>
+        <v>635664.616387778</v>
       </c>
     </row>
     <row r="3">
@@ -11295,28 +11295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>266.9143612221488</v>
+        <v>364.2434837329671</v>
       </c>
       <c r="AB3" t="n">
-        <v>365.2040044546939</v>
+        <v>498.3740037318355</v>
       </c>
       <c r="AC3" t="n">
-        <v>330.3494468365766</v>
+        <v>450.8098882879757</v>
       </c>
       <c r="AD3" t="n">
-        <v>266914.3612221488</v>
+        <v>364243.4837329671</v>
       </c>
       <c r="AE3" t="n">
-        <v>365204.0044546939</v>
+        <v>498374.0037318355</v>
       </c>
       <c r="AF3" t="n">
         <v>8.757617331438257e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.70370370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>330349.4468365766</v>
+        <v>450809.8882879757</v>
       </c>
     </row>
     <row r="4">
@@ -11401,28 +11401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>265.4311024167175</v>
+        <v>362.7602249275359</v>
       </c>
       <c r="AB4" t="n">
-        <v>363.1745443203427</v>
+        <v>496.3445435974842</v>
       </c>
       <c r="AC4" t="n">
-        <v>328.5136755290827</v>
+        <v>448.9741169804818</v>
       </c>
       <c r="AD4" t="n">
-        <v>265431.1024167175</v>
+        <v>362760.2249275359</v>
       </c>
       <c r="AE4" t="n">
-        <v>363174.5443203427</v>
+        <v>496344.5435974842</v>
       </c>
       <c r="AF4" t="n">
         <v>8.833599502682358e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.54166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>328513.6755290827</v>
+        <v>448974.1169804818</v>
       </c>
     </row>
   </sheetData>
@@ -11698,28 +11698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>389.3599487260708</v>
+        <v>542.8301623888216</v>
       </c>
       <c r="AB2" t="n">
-        <v>532.7394591956324</v>
+        <v>742.7241761569877</v>
       </c>
       <c r="AC2" t="n">
-        <v>481.8955529145276</v>
+        <v>671.8396232044923</v>
       </c>
       <c r="AD2" t="n">
-        <v>389359.9487260708</v>
+        <v>542830.1623888216</v>
       </c>
       <c r="AE2" t="n">
-        <v>532739.4591956325</v>
+        <v>742724.1761569877</v>
       </c>
       <c r="AF2" t="n">
         <v>1.208207773357087e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.88194444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>481895.5529145276</v>
+        <v>671839.6232044924</v>
       </c>
     </row>
   </sheetData>
@@ -11995,28 +11995,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>258.8469688032803</v>
+        <v>362.6528244313785</v>
       </c>
       <c r="AB2" t="n">
-        <v>354.1658422389634</v>
+        <v>496.1975935004662</v>
       </c>
       <c r="AC2" t="n">
-        <v>320.3647513305574</v>
+        <v>448.8411915944774</v>
       </c>
       <c r="AD2" t="n">
-        <v>258846.9688032803</v>
+        <v>362652.8244313785</v>
       </c>
       <c r="AE2" t="n">
-        <v>354165.8422389633</v>
+        <v>496197.5935004662</v>
       </c>
       <c r="AF2" t="n">
         <v>1.090456391854713e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.86111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>320364.7513305574</v>
+        <v>448841.1915944774</v>
       </c>
     </row>
   </sheetData>
@@ -12292,28 +12292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>281.4472140003761</v>
+        <v>376.9293736838936</v>
       </c>
       <c r="AB2" t="n">
-        <v>385.0884947700795</v>
+        <v>515.7313980246587</v>
       </c>
       <c r="AC2" t="n">
-        <v>348.3361893043192</v>
+        <v>466.5107172307477</v>
       </c>
       <c r="AD2" t="n">
-        <v>281447.2140003761</v>
+        <v>376929.3736838936</v>
       </c>
       <c r="AE2" t="n">
-        <v>385088.4947700795</v>
+        <v>515731.3980246587</v>
       </c>
       <c r="AF2" t="n">
         <v>9.611357183131444e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.06944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>348336.1893043192</v>
+        <v>466510.7172307477</v>
       </c>
     </row>
     <row r="3">
@@ -12398,28 +12398,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>264.0328852813548</v>
+        <v>349.9942624345309</v>
       </c>
       <c r="AB3" t="n">
-        <v>361.2614419507531</v>
+        <v>478.8775905200379</v>
       </c>
       <c r="AC3" t="n">
-        <v>326.7831569645905</v>
+        <v>433.1741853897243</v>
       </c>
       <c r="AD3" t="n">
-        <v>264032.8852813548</v>
+        <v>349994.2624345309</v>
       </c>
       <c r="AE3" t="n">
-        <v>361261.441950753</v>
+        <v>478877.5905200379</v>
       </c>
       <c r="AF3" t="n">
         <v>1.008543459754586e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.12037037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>326783.1569645905</v>
+        <v>433174.1853897243</v>
       </c>
     </row>
   </sheetData>
